--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -43,19 +43,25 @@
     <t xml:space="preserve">Output</t>
   </si>
   <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)))</t>
+  </si>
+  <si>
     <t xml:space="preserve">dummy</t>
   </si>
   <si>
     <t xml:space="preserve">Dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINISH()</t>
+    <t xml:space="preserve">Some question</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -251,14 +257,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="74.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -295,11 +303,22 @@
       <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Q</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)))</t>
+    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
   </si>
   <si>
     <t xml:space="preserve">dummy</t>
@@ -260,13 +260,13 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="74.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>

--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -49,19 +49,34 @@
     <t xml:space="preserve">Entry</t>
   </si>
   <si>
+    <t xml:space="preserve">CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISH()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some other</t>
   </si>
 </sst>
 </file>
@@ -72,7 +87,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -101,6 +116,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,13 +191,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -257,10 +282,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -315,10 +340,32 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -52,31 +52,68 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [item] THEN GO(dummy) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some question</t>
+    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_api_category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [item]), item_med_form = TO_TEXT(SELECT MedFormID FROM Products WHERE ID == [item]), SAVE(item_api_category), SAVE(item_med_form), GO(product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{SELECT [item_api_category] FROM Explanation WHERE MedFormID == [item_med_form]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Products WHERE ID == [item]</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Some answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINISH()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some other</t>
+    <t xml:space="preserve">Very nice :D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DELETE(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">item_api_category), DELETE(item_med_form), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FINISH()</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -200,7 +237,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,13 +321,13 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
@@ -340,32 +377,38 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB90B4CB-C55B-4910-9D70-9B7844985CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="( ) 14 Explaination" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="( ) 14 Explaination" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,67 +27,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_api_category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [item]), item_med_form = TO_TEXT(SELECT MedFormID FROM Products WHERE ID == [item]), SAVE(item_api_category), SAVE(item_med_form), GO(product)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{SELECT [item_api_category] FROM Explanation WHERE MedFormID == [item_med_form]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE ID == [item]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very nice :D</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>IF [item] THEN GO(variables) ELSE (FOR item IN [cart] DO (INJECT_WITH(Explanation, item)), FINISH())</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>item_api_category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [item]), item_med_form = TO_TEXT(SELECT MedFormID FROM Products WHERE ID == [item]), SAVE(item_api_category), SAVE(item_med_form), GO(product)</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>{SELECT [item_api_category] FROM Explanation WHERE MedFormID == [item_med_form]}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products WHERE ID == [item]</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <r>
@@ -93,7 +95,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DELETE(</t>
+      <t>DELETE(</t>
     </r>
     <r>
       <rPr>
@@ -112,40 +114,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">FINISH()</t>
+      <t>FINISH()</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">okay. :) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,14 +162,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -199,58 +185,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -309,30 +262,338 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="84.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col min="4" max="4" width="34.61328125" customWidth="1"/>
+    <col min="5" max="5" width="85" customWidth="1"/>
+    <col min="1024" max="1024" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -355,69 +616,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Output</t>
   </si>
   <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
+  </si>
+  <si>
     <t xml:space="preserve">entry</t>
   </si>
   <si>
@@ -61,7 +67,11 @@
     <t xml:space="preserve">Variables</t>
   </si>
   <si>
-    <t xml:space="preserve">item_api_category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [item]); item_med_form = TO_TEXT(SELECT MedFormID FROM Products WHERE ID == [item]); SAVE(item_api_category); SAVE(item_med_form); GO(product)</t>
+    <t xml:space="preserve">item_api_category = TO_TEXT(SELECT a.CategoryChoice FROM Products p JOIN API a ON p.APIID == a.ID WHERE p.ID == [item]);
+item_med_form = TO_TEXT(SELECT MedFormID FROM Products WHERE ID == [item]); 
+SAVE(item_api_category); 
+SAVE(item_med_form); 
+GO(product);</t>
   </si>
   <si>
     <t xml:space="preserve">product</t>
@@ -194,13 +204,21 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -285,13 +303,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="85"/>
@@ -320,61 +338,67 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="65.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Explanation.xlsx
+++ b/scenarios/cough/processes/Explanation.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE FOR item IN [cart] DO INJECT_WITH(Explanation, item); FINISH();</t>
+    <t xml:space="preserve">IF [item] THEN GO(variables) ELSE FOR item IN [cart] DO INJECT_WITH(Explanation, item) END; FINISH();</t>
   </si>
   <si>
     <t xml:space="preserve">variables</t>
@@ -306,7 +306,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
